--- a/各个子模块/模型模块/月份/lstm100_mon.xlsx
+++ b/各个子模块/模型模块/月份/lstm100_mon.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,125 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.37140657230324</v>
+        <v>23.92959794799888</v>
       </c>
       <c r="C2">
-        <v>24.49189680644893</v>
+        <v>30.09440016006821</v>
       </c>
       <c r="D2">
-        <v>25.96409857885121</v>
+        <v>22.06423726046218</v>
       </c>
       <c r="E2">
-        <v>39.71399872057837</v>
+        <v>28.09172810304896</v>
       </c>
       <c r="F2">
-        <v>20.58678570074159</v>
+        <v>25.13978222047891</v>
+      </c>
+      <c r="G2">
+        <v>21.58831065482346</v>
+      </c>
+      <c r="H2">
+        <v>20.20306783189855</v>
+      </c>
+      <c r="I2">
+        <v>26.57731857299158</v>
+      </c>
+      <c r="J2">
+        <v>23.2917469309904</v>
+      </c>
+      <c r="K2">
+        <v>21.14513380062633</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9681156595173329</v>
+        <v>0.6713672774813498</v>
       </c>
       <c r="C3">
-        <v>0.9613847236315251</v>
+        <v>0.7710488733776831</v>
       </c>
       <c r="D3">
-        <v>1.133146344112818</v>
+        <v>1.162876327784932</v>
       </c>
       <c r="E3">
-        <v>0.6286123610261842</v>
+        <v>0.8196015059902245</v>
       </c>
       <c r="F3">
-        <v>0.9082583597620664</v>
+        <v>0.765898730841204</v>
+      </c>
+      <c r="G3">
+        <v>0.981774568252475</v>
+      </c>
+      <c r="H3">
+        <v>1.031733301738003</v>
+      </c>
+      <c r="I3">
+        <v>1.178111162309046</v>
+      </c>
+      <c r="J3">
+        <v>1.416708076136514</v>
+      </c>
+      <c r="K3">
+        <v>1.11106118562784</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1112.034947128521</v>
+        <v>1202.233479872431</v>
       </c>
       <c r="C4">
-        <v>1204.395006708443</v>
+        <v>1952.264899020878</v>
       </c>
       <c r="D4">
-        <v>1279.576459255323</v>
+        <v>739.3644513225311</v>
       </c>
       <c r="E4">
-        <v>3454.174432718788</v>
+        <v>1664.213901261026</v>
       </c>
       <c r="F4">
-        <v>596.8269975209631</v>
+        <v>1349.752633915742</v>
+      </c>
+      <c r="G4">
+        <v>768.7126003909848</v>
+      </c>
+      <c r="H4">
+        <v>573.8400933667958</v>
+      </c>
+      <c r="I4">
+        <v>1250.475806043468</v>
+      </c>
+      <c r="J4">
+        <v>749.2261254062292</v>
+      </c>
+      <c r="K4">
+        <v>607.4707501867229</v>
       </c>
     </row>
   </sheetData>
